--- a/ZeroErr_Quotation_Vinothkumar_Viswanathan_20250306.xlsx
+++ b/ZeroErr_Quotation_Vinothkumar_Viswanathan_20250306.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quotation" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,40 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000080"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9E1F2"/>
+        <bgColor rgb="00D9E1F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +66,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -130,7 +179,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>10</row>
+      <row>11</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="571500" cy="571500"/>
@@ -155,7 +204,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>11</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="571500" cy="571500"/>
@@ -180,7 +229,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>12</row>
+      <row>13</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="571500" cy="571500"/>
@@ -493,169 +542,386 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ZeroErr Control Co., Ltd.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>To:  Vinothkumar Viswanathan
-Company: CSIRO
-Street Address:Data61, 1 Technology Court,Pullenvale, , 
-City, ST  ZIP Code: QLD, 4069, Australia
-Phone:+617 3327 4077</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Date：2025.03.06
-Quotation #: 2025030601
-Street Address：Fuyuan 1st, Fuhai City, ZIP Code：Bao'an，Shen Zhen, 518103
-Phone：+86 18922807806
-</t>
+          <t>To:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Vinothkumar Viswanathan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>06.03.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Company:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CSIRO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Quotation #:</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025030601</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Street Address:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Data61, 1 Technology Court,Pullenvale, </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Street Address:</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fuyuan 1st, Fuhai City, ZIP Code:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>City, ST  ZIP Code:</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Qld 4069, Australia, 4069, Australia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bao'an, Shen Zhen, 518103</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Phone:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+617 3327 4077</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Phone:</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>+86 18922807806</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Quotation List</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>IMAGES</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>MODELS</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>QUANTITY (PC)</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>WEIGHT (KG/PC)</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>UNIT PRICE (USD/PC)</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>AMOUNT (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>eRob110H100I-BHM-18ET[V6]</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" s="5" t="n">
         <v>2.68</v>
       </c>
-      <c r="E8" t="n">
-        <v>1294</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7764</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
+      <c r="E9" s="5" t="n">
+        <v>1340</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>$ 8,040.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>eRob80H50I-BHM-18ET[V6]</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" s="5" t="n">
         <v>1.03</v>
       </c>
-      <c r="E9" t="n">
-        <v>1098</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8784</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
+      <c r="E10" s="5" t="n">
+        <v>1144</v>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>$ 9,152.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>eRob90H100I-BHM-18ET[V6]</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" s="5" t="n">
         <v>1.62</v>
       </c>
-      <c r="E10" t="n">
-        <v>1330</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7980</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="E11" s="5" t="n">
+        <v>1376</v>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>$ 8,256.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>eRob Universal Accessories Kit</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="F11" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>$ 700.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>eLine - RJ45 ECAT -30</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" s="5" t="n">
         <v>0.03</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E13" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="F12" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>$ 220.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="4" t="n"/>
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>eRob to PC Connector</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E14" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="F13" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>$ 66.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Remarks:</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>$ 26,434.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1. Price term: DAP Australia</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>25514</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" t="n">
-        <v>817</v>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>FREIGHT</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>$ 817.00</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="n">
-        <v>26331</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2. Payment term: T/T. 100% advance payment.</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3. Leading time: 12 working days after the payment.</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>$ 27,251.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4.The price needs to be updated if the exchange rate fluctuate more than 10%.</t>
+        </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
